--- a/static/Excel/data_sensus.xlsx
+++ b/static/Excel/data_sensus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,55 +614,100 @@
           <t>Memiliki Lebih dari Satu Pekerjaan</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Nama Pencacah</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>HP Pencacah</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Tanggal Pencacah</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>TTD Pencacah</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Nama Pemberi Jawaban</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>HP Pemberi Jawaban</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Tanggal Pemberi Jawaban</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>TTD Pemberi Jawaban</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Catatan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-05-2025 09:49:30</t>
+          <t>28-05-2025 10:19:49</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KEL-12-28052025094930</t>
+          <t>KEL-71-28052025101949</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sidokepung</t>
+          <t>mana aja</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>paijo</t>
+          <t>ainul</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>jalanan</t>
+          <t>a</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>paijo</t>
+          <t>ainul</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -694,6 +739,190 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>ainul</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>28-05-2025 10:20:27</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>iham</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>28-05-2025 10:20:27</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>wow</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>28-05-2025 10:19:49</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KEL-71-28052025101949</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mana aja</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ainul</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ilham</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Anak</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Perempuan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Belum Kawin</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>SMA/MA/SMK/MAK/SMALB/PAKET C</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Sekolah</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>sawit</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>ainul</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>28-05-2025 10:20:27</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>iham</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>28-05-2025 10:20:27</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>wow</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/Excel/data_sensus.xlsx
+++ b/static/Excel/data_sensus.xlsx
@@ -678,12 +678,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-05-2025 14:55:51</t>
+          <t>01-06-2025 11:21:42</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KEL-12-28052025145551</t>
+          <t>KEL-12-01062025112142</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -699,26 +699,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ilham</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>jalaanan</t>
-        </is>
+          <t>paijo</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ilham</t>
+          <t>paijo</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -763,7 +761,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>28-05-2025 14:59:33</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -777,25 +775,25 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>28-05-2025 14:59:33</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>laalal</t>
+          <t>nothing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-05-2025 14:55:51</t>
+          <t>01-06-2025 11:21:42</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KEL-12-28052025145551</t>
+          <t>KEL-12-01062025112142</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -811,19 +809,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ilham</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>jalaanan</t>
-        </is>
+          <t>paijo</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -834,7 +830,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -843,7 +839,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Laki-laki</t>
+          <t>Laki-Laki</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -863,17 +859,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Ya</t>
+          <t>Tidak</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>makanan</t>
+          <t>Berusaha Sendiri</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Pelatihan Pastry</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -905,7 +901,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>28-05-2025 14:59:33</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -919,25 +915,25 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>28-05-2025 14:59:33</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>laalal</t>
+          <t>nothing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-05-2025 14:55:51</t>
+          <t>01-06-2025 11:21:42</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KEL-12-28052025145551</t>
+          <t>KEL-12-01062025112142</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -953,19 +949,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ilham</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>jalaanan</t>
-        </is>
+          <t>paijo</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -980,7 +974,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Anak</t>
+          <t>Kepala Keluarga</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -995,7 +989,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>PERGURUAN TINGGI</t>
+          <t>SMA/MA/SMK/MAK/SMALB/PAKET C</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1012,38 +1006,30 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Konstruksi</t>
+          <t>Perdagangan Besar dan Eceran, Reparasi dan Perawatan Mobil dan Motor</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Buruh/Karyawan/Pegawai/Pekerja Bebas</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Perdagangan Besar dan Eceran, Reparasi dan Perawatan Mobil dan Motor</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Berusaha Sendiri</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Ya</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -1054,7 +1040,7 @@
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Ya</t>
+          <t>Tidak</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1067,7 +1053,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>28-05-2025 14:59:33</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1081,40 +1067,36 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>28-05-2025 14:59:33</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>laalal</t>
+          <t>nothing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28-05-2025 15:04:36</t>
+          <t>01-06-2025 11:21:42</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KEL-12-28052025150436</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>KEL-12-01062025112142</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>lelelele</t>
+          <t>sidokepung</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1122,48 +1104,92 @@
           <t>paijo</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>jalanana</t>
-        </is>
+      <c r="G5" t="n">
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>paijo</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>ilhammam</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>42</v>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Kepala Keluarga</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+          <t>Suami/Istri</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Laki-Laki</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Kawin</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PERGURUAN TINGGI</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Sekolah</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Pertambangan dan Penggalian</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Buruh/Karyawan/Pegawai/Pekerja Bebas</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Konstruksi</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -1172,64 +1198,64 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>aku</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
+          <t>wahyu</t>
+        </is>
+      </c>
+      <c r="AO5" t="n">
+        <v>8970466446</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>28-05-2025 15:06:55</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
+          <t>ibram</t>
+        </is>
+      </c>
+      <c r="AS5" t="n">
+        <v>8510222222</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>28-05-2025 15:06:55</t>
+          <t>01-06-2025 11:24:44</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>keluarga broken</t>
+          <t>nothing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28-05-2025 15:04:36</t>
+          <t>01-06-2025 11:25:22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KEL-12-28052025150436</t>
+          <t>KEL-23-01062025112522</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1239,105 +1265,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>paijo</t>
+          <t>ibram</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>jalanana</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>wahyu</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>20</v>
-      </c>
+          <t>ibram</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Anak</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Laki-Laki</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Belum Kawin</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>PERGURUAN TINGGI</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Bekerja</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Ya</t>
-        </is>
-      </c>
+          <t>Kepala Keluarga</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Pertambangan dan Penggalian</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Berusaha Sendiri</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Ya</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Penyediaan Akomodasi dan Penyediaan Makan Minum</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Berusaha Sendiri</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
@@ -1346,68 +1318,64 @@
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Ya</t>
-        </is>
-      </c>
+      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>aku</t>
+          <t>wahyu</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>08970466446</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>28-05-2025 15:06:55</t>
+          <t>01-06-2025 11:26:36</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ibram</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>08510222222</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>28-05-2025 15:06:55</t>
+          <t>01-06-2025 11:26:36</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>keluarga broken</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28-05-2025 15:04:36</t>
+          <t>01-06-2025 11:25:22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KEL-12-28052025150436</t>
+          <t>KEL-23-01062025112522</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1417,34 +1385,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>paijo</t>
+          <t>ibram</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>jalanana</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>rendi</t>
+          <t>ibram</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Suami/Istri</t>
+          <t>Kepala Keluarga</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1454,7 +1422,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Kawin</t>
+          <t>Belum Kawin</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1479,7 +1447,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Lainnya</t>
+          <t>Pelatihan Menjahit</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
@@ -1503,39 +1471,39 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>aku</t>
+          <t>wahyu</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>08970466446</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>28-05-2025 15:06:55</t>
+          <t>01-06-2025 11:26:36</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ibram</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>08510222222</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>28-05-2025 15:06:55</t>
+          <t>01-06-2025 11:26:36</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>keluarga broken</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/static/Excel/data_sensus.xlsx
+++ b/static/Excel/data_sensus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,15 +1248,11 @@
           <t>KEL-23-01062025112522</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1324,10 +1320,8 @@
           <t>wahyu</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>08970466446</t>
-        </is>
+      <c r="AO6" t="n">
+        <v>8970466446</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1340,10 +1334,8 @@
           <t>ibram</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>08510222222</t>
-        </is>
+      <c r="AS6" t="n">
+        <v>8510222222</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
@@ -1368,15 +1360,11 @@
           <t>KEL-23-01062025112522</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1474,10 +1462,8 @@
           <t>wahyu</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>08970466446</t>
-        </is>
+      <c r="AO7" t="n">
+        <v>8970466446</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1490,10 +1476,8 @@
           <t>ibram</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>08510222222</t>
-        </is>
+      <c r="AS7" t="n">
+        <v>8510222222</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
@@ -1504,6 +1488,608 @@
       <c r="AV7" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:17:01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KEL-12-01062025121701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sidokepung</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lalalla</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Kepala Keluarga</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>Kulo</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>08974807646</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>08978704678</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>Tidak ada catatan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:17:01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KEL-12-01062025121701</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sidokepung</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lalalla</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>40</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Kepala Keluarga</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Laki-Laki</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Kawin</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>PERGURUAN TINGGI</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bekerja</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Jasa Kesehatan dan Kegiatan Sosial</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>Kulo</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>08974807646</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>08978704678</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Tidak ada catatan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:17:01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KEL-12-01062025121701</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sidokepung</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lalalla</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Putri</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>36</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Suami/Istri</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Perempuan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Kawin</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>PERGURUAN TINGGI</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Mengurus Rumah Tangga</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Pelatihan Menjahit</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>Kulo</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>08974807646</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>08978704678</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Tidak ada catatan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:17:01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KEL-12-01062025121701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sidokepung</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lalalla</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Suryi</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>16</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Anak</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Laki-Laki</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Belum Kawin</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>SMP/MTS/SMPLB/PAKET B</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Sekolah</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Jasa Pendidikan</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Buruh/Karyawan/Pegawai/Pekerja Bebas</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Jasa lainnya</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>Kulo</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>08974807646</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>Makmur</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>08978704678</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>01-06-2025 12:21:30</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>Tidak ada catatan</t>
         </is>
       </c>
     </row>
